--- a/Job seeker compared.xlsx
+++ b/Job seeker compared.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K16"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Criteria" dataDxfId="10"/>
@@ -610,7 +610,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
